--- a/biology/Zoologie/Écureuil_géant_de_Ceylan/Écureuil_géant_de_Ceylan.xlsx
+++ b/biology/Zoologie/Écureuil_géant_de_Ceylan/Écureuil_géant_de_Ceylan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cureuil_g%C3%A9ant_de_Ceylan</t>
+          <t>Écureuil_géant_de_Ceylan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ratufa macroura
-L'Écureuil géant de Ceylan [1] ou Écureuil géant gris [1] (Ratufa macroura) est une espèce d'écureuil de la famille des sciuridés qui est présent dans le sud de l'Inde et au Sri Lanka.
+L'Écureuil géant de Ceylan  ou Écureuil géant gris  (Ratufa macroura) est une espèce d'écureuil de la famille des sciuridés qui est présent dans le sud de l'Inde et au Sri Lanka.
 Il est caractérisé par sa grande taille, ses tête et parties supérieures du corps ainsi que la queue totalement noires ou grisâtres, une bande claire séparant nettement la partie supérieure de la tête du reste du dos, des parties ventrales blanc jaunâtre, les touffes des oreilles très petites et courtes.
 </t>
         </is>
